--- a/data/trdplan_auto/交易计划mxz-20200803.xlsx
+++ b/data/trdplan_auto/交易计划mxz-20200803.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdplan_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B5A17-77FB-4CE3-8CF8-F6D6EC219CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE31C5-66B4-409E-87F1-CF15C6F4A70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="267">
   <si>
     <t>产品代码</t>
   </si>
@@ -606,40 +606,41 @@
 信用户目标持仓2050万，15手IC空头（平1手IC空头）</t>
   </si>
   <si>
-    <t>目标持仓0万，清仓IC多头（平1手IC多头）</t>
+    <t>卖货基100万，目标持仓0万，清仓IC多头（平1手IC多头）</t>
   </si>
   <si>
     <t>目标持仓0万</t>
   </si>
   <si>
-    <t>东北证券目标持仓5300万，
+    <t>东北证券卖货基50万，目标持仓5300万，
 中信证券目标持仓700万，46手IC空头（平1手IC空头）</t>
   </si>
   <si>
-    <t>海通证券目标持仓11300万，
+    <t>海通证券卖货基150万，目标持仓11300万，
 中信建投目标持仓3250万</t>
   </si>
   <si>
     <t>目标持仓2400万，18手IC空头（开18手IC空头）</t>
   </si>
   <si>
-    <t>目标持仓1350万</t>
-  </si>
-  <si>
-    <t>目标持仓2800万，8手IC多头（平2手IC多头）</t>
+    <t>卖货基150万，目标持仓1350万</t>
+  </si>
+  <si>
+    <t>卖货基200万，目标持仓2800万，8手IC多头（平2手IC多头）</t>
   </si>
   <si>
     <t>信用户目标持仓0万</t>
   </si>
   <si>
-    <t>目标持仓3700万，11手IC多头（平1手IC多头）</t>
+    <t>开2手IC空头，
+目标持仓3700万，11手IC多头（平2手IC空头，开11手IC多头）</t>
   </si>
   <si>
     <t>普通户目标持仓0万，
 信用户目标持仓8800万，7手IC多头（平4手IC多头）</t>
   </si>
   <si>
-    <t>目标持仓2900万</t>
+    <t>卖货基250万，目标持仓2900万</t>
   </si>
   <si>
     <t>目标持仓1800万，14手IC空头（开1手IC空头）</t>
@@ -648,49 +649,52 @@
     <t>目标持仓3950万</t>
   </si>
   <si>
-    <t>目标持仓11550万</t>
-  </si>
-  <si>
-    <t>目标持仓20100万，16手IC多头（开2手IC多头）</t>
+    <t>卖货基150万，目标持仓11550万</t>
+  </si>
+  <si>
+    <t>卖货基250万，目标持仓20100万，16手IC多头（开2手IC多头）</t>
   </si>
   <si>
     <t>普通户目标持仓1950万</t>
   </si>
   <si>
-    <t>普通户目标持仓0万，
-信用户目标持仓3750万，9手IC空头（平1手IC空头）</t>
+    <t>普通户卖货基250万，目标持仓0万，
+信用户卖货基100万，目标持仓3750万，9手IC空头（平1手IC空头）</t>
   </si>
   <si>
     <t>目标持仓2100万，16手IC空头（开16手IC空头）</t>
   </si>
   <si>
-    <t>普通户目标持仓0万，164手IC多头（平53手IC空头，开164手IC多头）</t>
+    <t>开7手IC空头，
+普通户卖货基50450万，目标持仓0万，164手IC多头（平7手IC空头，开164手IC多头）</t>
   </si>
   <si>
     <t>目标持仓2600万</t>
   </si>
   <si>
-    <t>目标持仓0万，
+    <t>卖货基1250万，目标持仓0万，
 信用户目标持仓5450万，2手IC空头（开1手IC空头）</t>
   </si>
   <si>
-    <t>海通证券目标持仓0万，
+    <t>开2手IC多头，
+海通证券目标持仓0万，
 华泰证券普通户目标持仓0万，
-华泰证券信用户目标持仓3450万，219手IC空头（开4手IC空头）</t>
-  </si>
-  <si>
-    <t>普通户目标持仓0万，
-信用户目标持仓18550万，47手IC空头（平4手IC空头）</t>
+华泰证券信用户目标持仓3450万，219手IC空头（平2手IC多头，开219手IC空头）</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+普通户卖货基2000万，目标持仓0万，
+信用户目标持仓18550万，47手IC空头（平1手IC多头，开47手IC空头）</t>
   </si>
   <si>
     <t>普通户目标持仓1200万</t>
   </si>
   <si>
     <t>中信证券目标持仓0万，
-国泰君安信用户目标持仓4000万，22手IC空头（开22手IC空头）</t>
-  </si>
-  <si>
-    <t>目标持仓12600万，29手IC空头（平7手IC多头，开29手IC空头）</t>
+国泰君安信用户买货基450万，目标持仓4000万，22手IC空头（开22手IC空头）</t>
+  </si>
+  <si>
+    <t>买货基1050万，目标持仓12600万，29手IC空头（平7手IC多头，开29手IC空头）</t>
   </si>
   <si>
     <t>目标持仓9200万</t>
@@ -717,7 +721,8 @@
     <t>注意事项</t>
   </si>
   <si>
-    <t>超额计提</t>
+    <t>超额
+计提</t>
   </si>
   <si>
     <t>y</t>
@@ -947,102 +952,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>5f251de1dcc6df57bf68e676</t>
-  </si>
-  <si>
-    <t>5f251de3dcc6df57bf68e67c</t>
-  </si>
-  <si>
-    <t>5f251de5dcc6df57bf68e681</t>
-  </si>
-  <si>
-    <t>5f251de7dcc6df57bf68e685</t>
-  </si>
-  <si>
-    <t>5f251de8dcc6df57bf68e689</t>
-  </si>
-  <si>
-    <t>5f251deadcc6df57bf68e68e</t>
-  </si>
-  <si>
-    <t>5f251decdcc6df57bf68e693</t>
-  </si>
-  <si>
-    <t>5f251deedcc6df57bf68e697</t>
-  </si>
-  <si>
-    <t>5f251df0dcc6df57bf68e69b</t>
-  </si>
-  <si>
-    <t>5f251df2dcc6df57bf68e69f</t>
-  </si>
-  <si>
-    <t>5f251df3dcc6df57bf68e6a4</t>
-  </si>
-  <si>
-    <t>5f251df5dcc6df57bf68e6a8</t>
-  </si>
-  <si>
-    <t>5f251df6dcc6df57bf68e6ad</t>
-  </si>
-  <si>
-    <t>5f251df8dcc6df57bf68e6b1</t>
-  </si>
-  <si>
-    <t>5f251df9dcc6df57bf68e6b5</t>
-  </si>
-  <si>
-    <t>5f251dfbdcc6df57bf68e6b9</t>
-  </si>
-  <si>
-    <t>5f251dfcdcc6df57bf68e6bd</t>
-  </si>
-  <si>
-    <t>5f251dfddcc6df57bf68e6c1</t>
-  </si>
-  <si>
-    <t>5f251dffdcc6df57bf68e6c5</t>
-  </si>
-  <si>
-    <t>5f251e00dcc6df57bf68e6ca</t>
-  </si>
-  <si>
-    <t>5f251e02dcc6df57bf68e6ce</t>
-  </si>
-  <si>
-    <t>5f251e04dcc6df57bf68e6d2</t>
-  </si>
-  <si>
-    <t>5f251e05dcc6df57bf68e6d6</t>
-  </si>
-  <si>
-    <t>5f251e07dcc6df57bf68e6db</t>
-  </si>
-  <si>
-    <t>5f251e09dcc6df57bf68e6e1</t>
-  </si>
-  <si>
-    <t>5f251e0cdcc6df57bf68e6e6</t>
-  </si>
-  <si>
-    <t>5f251e0ddcc6df57bf68e6ea</t>
-  </si>
-  <si>
-    <t>5f251e0fdcc6df57bf68e6ee</t>
-  </si>
-  <si>
-    <t>5f251e11dcc6df57bf68e6f4</t>
-  </si>
-  <si>
-    <t>5f251e13dcc6df57bf68e6f8</t>
-  </si>
-  <si>
-    <t>5f251e15dcc6df57bf68e6fc</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,11 +1410,14 @@
     <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
     <col min="8" max="10" width="29" style="3" customWidth="1"/>
     <col min="11" max="13" width="47.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="36.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1560,11 +1472,8 @@
       <c r="R1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1592,17 +1501,14 @@
       <c r="K2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="S2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1630,17 +1536,14 @@
       <c r="K3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="S3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1668,17 +1571,14 @@
       <c r="K4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1706,17 +1606,14 @@
       <c r="K5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="S5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1744,14 +1641,11 @@
       <c r="K6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="S6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1779,17 +1673,14 @@
       <c r="K7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1817,17 +1708,14 @@
       <c r="K8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1855,14 +1743,11 @@
       <c r="K9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="S9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1890,17 +1775,14 @@
       <c r="K10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="S10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1928,17 +1810,14 @@
       <c r="K11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="S11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1963,11 +1842,8 @@
       <c r="K12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="S12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1995,17 +1871,14 @@
       <c r="K13" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="S13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2033,17 +1906,14 @@
       <c r="K14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="S14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2071,17 +1941,14 @@
       <c r="K15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2109,17 +1976,14 @@
       <c r="K16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="S16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2147,17 +2011,14 @@
       <c r="K17" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="S17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2185,20 +2046,17 @@
       <c r="K18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2226,20 +2084,17 @@
       <c r="K19" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="S19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2267,17 +2122,14 @@
       <c r="K20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="S20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2305,17 +2157,14 @@
       <c r="K21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="S21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2343,17 +2192,14 @@
       <c r="K22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="S22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2381,17 +2227,14 @@
       <c r="K23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="S23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2419,17 +2262,14 @@
       <c r="K24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="S24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2460,17 +2300,14 @@
       <c r="M25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="S25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2501,17 +2338,14 @@
       <c r="M26" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="S26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,17 +2373,14 @@
       <c r="K27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="S27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2577,17 +2408,14 @@
       <c r="K28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="S28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2615,17 +2443,14 @@
       <c r="K29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="S29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2653,17 +2478,14 @@
       <c r="K30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="S30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2694,17 +2516,14 @@
       <c r="M31" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="S31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2732,14 +2551,11 @@
       <c r="K32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="S32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/trdplan_auto/交易计划mxz-20200803.xlsx
+++ b/data/trdplan_auto/交易计划mxz-20200803.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdplan_auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE31C5-66B4-409E-87F1-CF15C6F4A70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易计划!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -632,8 +626,8 @@
     <t>信用户目标持仓0万</t>
   </si>
   <si>
-    <t>开2手IC空头，
-目标持仓3700万，11手IC多头（平2手IC空头，开11手IC多头）</t>
+    <t>平2手IC多头，
+目标持仓3700万，11手IC多头（开1手IC多头）</t>
   </si>
   <si>
     <t>普通户目标持仓0万，
@@ -666,7 +660,7 @@
   </si>
   <si>
     <t>开7手IC空头，
-普通户卖货基50450万，目标持仓0万，164手IC多头（平7手IC空头，开164手IC多头）</t>
+普通户卖货基50450万，目标持仓0万，164手IC多头（平60手IC空头，开164手IC多头）</t>
   </si>
   <si>
     <t>目标持仓2600万</t>
@@ -676,15 +670,15 @@
 信用户目标持仓5450万，2手IC空头（开1手IC空头）</t>
   </si>
   <si>
-    <t>开2手IC多头，
+    <t>平2手IC空头，
 海通证券目标持仓0万，
 华泰证券普通户目标持仓0万，
-华泰证券信用户目标持仓3450万，219手IC空头（平2手IC多头，开219手IC空头）</t>
-  </si>
-  <si>
-    <t>开1手IC多头，
+华泰证券信用户目标持仓3450万，219手IC空头（开6手IC空头）</t>
+  </si>
+  <si>
+    <t>平1手IC空头，
 普通户卖货基2000万，目标持仓0万，
-信用户目标持仓18550万，47手IC空头（平1手IC多头，开47手IC空头）</t>
+信用户目标持仓18550万，47手IC空头（平3手IC空头）</t>
   </si>
   <si>
     <t>普通户目标持仓1200万</t>
@@ -706,15 +700,15 @@
     <t>明组合交易计划</t>
   </si>
   <si>
-    <t xml:space="preserve">赎回420万, 按照20200727净值 20200730划款.  
+    <t xml:space="preserve">赎回420万, 按照20200727净值 20200730划款.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">赎回1712万, 按照20200727净值 20200730划款.  
+    <t xml:space="preserve">赎回1712万, 按照20200727净值 20200730划款.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">申购4500万, 按照20200727净值 20200729划款.  
+    <t xml:space="preserve">申购4500万, 按照20200727净值 20200729划款.
 </t>
   </si>
   <si>
@@ -731,224 +725,171 @@
     <t>当前股票持仓</t>
   </si>
   <si>
-    <t xml:space="preserve">五矿普通户8250万
-五矿信用户1600万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信建投信用户2450万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">招商信用户2100万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东北普通户5450万
-中信普通户700万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海通普通户11450万
-中信建投普通户3300万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">申银万国信用户2800万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户1350万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户2550万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户4000万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信建投普通户8150万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户3000万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户1750万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户4150万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银河普通户11800万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信建投普通户20300万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华泰普通户2000万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国泰君安信用户3900万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海通普通户2050万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华泰普通户55950万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华泰普通户2600万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信建投信用户5350万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海通普通户24650万
-华泰信用户3450万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">申银万国信用户18900万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华泰普通户1200万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙商普通户1700万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信普通户3100万
-国泰君安信用户3750万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信普通户8150万
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华福普通户9050万
-</t>
+    <t>五矿普通户8250万
+五矿信用户1600万</t>
+  </si>
+  <si>
+    <t>中信建投信用户2450万</t>
+  </si>
+  <si>
+    <t>招商信用户2100万</t>
+  </si>
+  <si>
+    <t>东北普通户5450万
+中信普通户700万</t>
+  </si>
+  <si>
+    <t>海通普通户11450万
+中信建投普通户3300万</t>
+  </si>
+  <si>
+    <t>申银万国信用户2800万</t>
+  </si>
+  <si>
+    <t>银河普通户1350万</t>
+  </si>
+  <si>
+    <t>银河普通户2550万</t>
+  </si>
+  <si>
+    <t>银河普通户4000万</t>
+  </si>
+  <si>
+    <t>中信建投普通户8150万</t>
+  </si>
+  <si>
+    <t>银河普通户3000万</t>
+  </si>
+  <si>
+    <t>银河普通户1750万</t>
+  </si>
+  <si>
+    <t>银河普通户4150万</t>
+  </si>
+  <si>
+    <t>银河普通户11800万</t>
+  </si>
+  <si>
+    <t>中信建投普通户20300万</t>
+  </si>
+  <si>
+    <t>华泰普通户2000万</t>
+  </si>
+  <si>
+    <t>国泰君安信用户3900万</t>
+  </si>
+  <si>
+    <t>海通普通户2050万</t>
+  </si>
+  <si>
+    <t>华泰普通户55950万</t>
+  </si>
+  <si>
+    <t>华泰普通户2600万</t>
+  </si>
+  <si>
+    <t>中信建投信用户5350万</t>
+  </si>
+  <si>
+    <t>海通普通户24650万
+华泰信用户3450万</t>
+  </si>
+  <si>
+    <t>申银万国信用户18900万</t>
+  </si>
+  <si>
+    <t>华泰普通户1200万</t>
+  </si>
+  <si>
+    <t>浙商普通户1700万</t>
+  </si>
+  <si>
+    <t>中信普通户3100万
+国泰君安信用户3750万</t>
+  </si>
+  <si>
+    <t>中信普通户8150万</t>
+  </si>
+  <si>
+    <t>华福普通户9050万</t>
   </si>
   <si>
     <t>当前期指持仓</t>
   </si>
   <si>
-    <t xml:space="preserve">80手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12手IC空头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7手IC多头
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45手IC空头
-</t>
+    <t>80手IC空头</t>
+  </si>
+  <si>
+    <t>18手IC空头</t>
+  </si>
+  <si>
+    <t>16手IC空头</t>
+  </si>
+  <si>
+    <t>1手IC多头</t>
+  </si>
+  <si>
+    <t>47手IC空头</t>
+  </si>
+  <si>
+    <t>111手IC空头</t>
+  </si>
+  <si>
+    <t>4手IC多头</t>
+  </si>
+  <si>
+    <t>10手IC多头</t>
+  </si>
+  <si>
+    <t>12手IC多头</t>
+  </si>
+  <si>
+    <t>11手IC多头</t>
+  </si>
+  <si>
+    <t>9手IC多头</t>
+  </si>
+  <si>
+    <t>13手IC空头</t>
+  </si>
+  <si>
+    <t>3手IC多头</t>
+  </si>
+  <si>
+    <t>14手IC多头</t>
+  </si>
+  <si>
+    <t>15手IC空头</t>
+  </si>
+  <si>
+    <t>10手IC空头</t>
+  </si>
+  <si>
+    <t>53手IC空头</t>
+  </si>
+  <si>
+    <t>20手IC空头</t>
+  </si>
+  <si>
+    <t>1手IC空头</t>
+  </si>
+  <si>
+    <t>215手IC空头</t>
+  </si>
+  <si>
+    <t>51手IC空头</t>
+  </si>
+  <si>
+    <t>9手IC空头</t>
+  </si>
+  <si>
+    <t>12手IC空头</t>
+  </si>
+  <si>
+    <t>7手IC多头</t>
+  </si>
+  <si>
+    <t>45手IC空头</t>
   </si>
   <si>
     <t>备注</t>
@@ -957,12 +898,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -971,7 +912,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -980,20 +928,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1059,23 +993,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1117,7 +1043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,27 +1075,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,24 +1109,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1394,30 +1284,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="10" width="29" style="3" customWidth="1"/>
-    <col min="11" max="13" width="47.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="36.625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="47.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1361,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="80" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1396,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="80" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1543,7 +1431,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="80" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1466,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="80" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1501,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="80" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="80" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1568,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="80" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1603,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="80" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1635,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="80" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1670,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="80" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1705,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="80" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +1731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="80" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="80" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1913,7 +1801,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="80" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1948,7 +1836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="80" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +1871,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="80" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +1906,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="80" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2056,7 +1944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="80" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2094,7 +1982,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="80" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2017,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="80" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2052,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="80" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2199,7 +2087,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="80" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2122,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="80" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2269,7 +2157,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="80" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2307,7 +2195,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="80" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2233,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="80" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2380,7 +2268,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="80" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,7 +2303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="80" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2450,7 +2338,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="80" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2485,7 +2373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="80" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2523,7 +2411,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2558,18 +2446,16 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="80" customHeight="1"/>
+    <row r="34" ht="80" customHeight="1"/>
+    <row r="35" ht="80" customHeight="1"/>
+    <row r="36" ht="80" customHeight="1"/>
+    <row r="37" ht="80" customHeight="1"/>
+    <row r="38" ht="80" customHeight="1"/>
+    <row r="39" ht="80" customHeight="1"/>
+    <row r="40" ht="80" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:R1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/trdplan_auto/交易计划mxz-20200803.xlsx
+++ b/data/trdplan_auto/交易计划mxz-20200803.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdplan_auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7CD3CB-6238-4CEB-B390-549A4DA652F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易计划!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
   <si>
     <t>产品代码</t>
   </si>
@@ -225,97 +231,97 @@
     <t>总规模</t>
   </si>
   <si>
-    <t>13136</t>
-  </si>
-  <si>
-    <t>3262</t>
-  </si>
-  <si>
-    <t>2635</t>
-  </si>
-  <si>
-    <t>130</t>
+    <t>12965</t>
+  </si>
+  <si>
+    <t>3143</t>
+  </si>
+  <si>
+    <t>2601</t>
+  </si>
+  <si>
+    <t>132</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>7843</t>
-  </si>
-  <si>
-    <t>18933</t>
-  </si>
-  <si>
-    <t>3134</t>
-  </si>
-  <si>
-    <t>1933</t>
-  </si>
-  <si>
-    <t>3965</t>
+    <t>7746</t>
+  </si>
+  <si>
+    <t>18705</t>
+  </si>
+  <si>
+    <t>3183</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>3986</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>5321</t>
-  </si>
-  <si>
-    <t>9851</t>
-  </si>
-  <si>
-    <t>4158</t>
-  </si>
-  <si>
-    <t>2335</t>
-  </si>
-  <si>
-    <t>4438</t>
-  </si>
-  <si>
-    <t>12954</t>
-  </si>
-  <si>
-    <t>22536</t>
-  </si>
-  <si>
-    <t>2530</t>
-  </si>
-  <si>
-    <t>4895</t>
-  </si>
-  <si>
-    <t>2702</t>
-  </si>
-  <si>
-    <t>34426</t>
-  </si>
-  <si>
-    <t>3358</t>
-  </si>
-  <si>
-    <t>6643</t>
-  </si>
-  <si>
-    <t>35741</t>
-  </si>
-  <si>
-    <t>24093</t>
-  </si>
-  <si>
-    <t>1577</t>
-  </si>
-  <si>
-    <t>2091</t>
-  </si>
-  <si>
-    <t>9385</t>
-  </si>
-  <si>
-    <t>8213</t>
-  </si>
-  <si>
-    <t>11357</t>
+    <t>5345</t>
+  </si>
+  <si>
+    <t>9874</t>
+  </si>
+  <si>
+    <t>4176</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>12972</t>
+  </si>
+  <si>
+    <t>22564</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>2674</t>
+  </si>
+  <si>
+    <t>34327</t>
+  </si>
+  <si>
+    <t>3321</t>
+  </si>
+  <si>
+    <t>6641</t>
+  </si>
+  <si>
+    <t>35345</t>
+  </si>
+  <si>
+    <t>24004</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>9343</t>
+  </si>
+  <si>
+    <t>7632</t>
+  </si>
+  <si>
+    <t>11261</t>
   </si>
   <si>
     <t>最新净值</t>
@@ -441,19 +447,19 @@
     <t>今资金划转计划</t>
   </si>
   <si>
-    <t>期转银5万
-证（普通）转银9135万
-银转证（信用）9145万</t>
-  </si>
-  <si>
-    <t>期（西部）转银75万
-银转期（宏源）40万
-银转证（信用）5万
+    <t>证（普通）转银9140万
+银转期140万
+银转证（信用）9005万</t>
+  </si>
+  <si>
+    <t>期（西部）转银60万
+证（信用）转银95万
+银转期（宏源）120万
 银转证（普通）25万</t>
   </si>
   <si>
-    <t>期转银20万
-证（信用）转银15万
+    <t>证（信用）转银40万
+银转期15万
 银转证（普通）20万</t>
   </si>
   <si>
@@ -465,118 +471,117 @@
 银转证5万</t>
   </si>
   <si>
-    <t>证（中信）转银210万
-银转期25万
-银转证（东北）185万</t>
+    <t>证（中信）转银220万
+银转期95万
+银转证（东北）115万</t>
   </si>
   <si>
     <t>证（中信建投）转银15万
-银转期5万
-银转证（海通）20万</t>
+证（海通）转银175万
+银转期180万</t>
   </si>
   <si>
     <t>期（中财）转银全部
-证（申银万国信用）转银全部
-银转期475万
-银转证2470万</t>
-  </si>
-  <si>
-    <t>期转银80万
-银转证75万</t>
-  </si>
-  <si>
-    <t>期转银175万
-银转证160万</t>
-  </si>
-  <si>
-    <t>期转银75万
-银转证55万</t>
-  </si>
-  <si>
-    <t>期转银175万
-证（普通）转银8895万
-银转证（信用）9060万</t>
-  </si>
-  <si>
-    <t>期转银175万
-银转证170万</t>
-  </si>
-  <si>
-    <t>证转银5万
-银转期15万</t>
-  </si>
-  <si>
-    <t>期转银120万
-银转证110万</t>
-  </si>
-  <si>
-    <t>期转银95万
-银转证75万</t>
-  </si>
-  <si>
-    <t>期转银40万
-银转证15万</t>
-  </si>
-  <si>
-    <t>证（普通）转银70万
-银转期75万</t>
+证（信用）转银160万
+银转期55万
+银转证（普通）715万</t>
   </si>
   <si>
     <t>期转银90万
-银转证（信用）35万
+银转证85万</t>
+  </si>
+  <si>
+    <t>期转银200万
+银转证175万</t>
+  </si>
+  <si>
+    <t>期转银100万
+银转证80万</t>
+  </si>
+  <si>
+    <t>期转银195万
+银转证（普通）685万</t>
+  </si>
+  <si>
+    <t>期转银195万
+银转证190万</t>
+  </si>
+  <si>
+    <t>证转银30万
+银转期40万</t>
+  </si>
+  <si>
+    <t>期转银125万
+银转证115万</t>
+  </si>
+  <si>
+    <t>期转银115万
+银转证95万</t>
+  </si>
+  <si>
+    <t>期转银70万
+银转证45万</t>
+  </si>
+  <si>
+    <t>证（普通）转银95万
+银转期105万</t>
+  </si>
+  <si>
+    <t>期转银70万
+银转证（信用）20万
 银转证（普通）305万</t>
   </si>
   <si>
     <t>期（永安）转银全部
-银转期420万
-银转证15万</t>
-  </si>
-  <si>
-    <t>证（普通）转银8620万
-银转期2955万</t>
-  </si>
-  <si>
-    <t>证转银65万
-银转期75万</t>
+证转银10万
+银转期420万</t>
+  </si>
+  <si>
+    <t>银转期3055万
+银转证（普通）20130万</t>
+  </si>
+  <si>
+    <t>证转银95万
+银转期85万</t>
   </si>
   <si>
     <t>期转银385万
-证（中信建投普通）转银全部
-银转证1520万
-银转证（信用）395万</t>
+证（海通普通）转银全部
+银转证（信用）395万
+银转证（普通）840万</t>
   </si>
   <si>
     <t>证（华泰信用）转银330万
 证（海通）转银27125万
-银转期1230万</t>
-  </si>
-  <si>
-    <t>期转银75万
-证（信用）转银770万
+银转期1570万</t>
+  </si>
+  <si>
+    <t>期转银15万
+证（信用）转银845万
 银转证（普通）2165万</t>
   </si>
   <si>
-    <t>证（普通）转银40万
+    <t>证（普通）转银55万
+银转期50万</t>
+  </si>
+  <si>
+    <t>证转银40万
 银转期35万</t>
-  </si>
-  <si>
-    <t>证转银1775万
-银转期15万</t>
   </si>
   <si>
     <t>期（永安）转银全部
 证（中信）转银3615万
-证（国泰君安信用）转银90万
-银转期580万
+证（国泰君安信用）转银110万
+银转期555万
 银转证（国泰君安普通）475万</t>
   </si>
   <si>
-    <t>期转银40万
-银转证4530万</t>
-  </si>
-  <si>
-    <t>期转银230万
-银转证5万</t>
+    <t>银转期440万
+银转证4065万</t>
+  </si>
+  <si>
+    <t>期转银160万
+证转银80万</t>
   </si>
   <si>
     <t>今资金划转执行</t>
@@ -589,109 +594,112 @@
   </si>
   <si>
     <t>普通户目标持仓0万，
-信用户目标持仓10100万，77手IC空头（平3手IC空头）</t>
+信用户目标持仓10000万，76手IC空头（平4手IC空头）</t>
   </si>
   <si>
     <t>普通户目标持仓0万，
-信用户目标持仓2500万，19手IC空头（宏源期货开3手IC空头，西部期货平2手IC空头）</t>
+信用户目标持仓2400万，18手IC空头（宏源期货开2手IC空头，西部期货平2手IC空头）</t>
   </si>
   <si>
     <t>普通户目标持仓0万，
-信用户目标持仓2050万，15手IC空头（平1手IC空头）</t>
-  </si>
-  <si>
-    <t>卖货基100万，目标持仓0万，清仓IC多头（平1手IC多头）</t>
+信用户目标持仓2000万，15手IC空头（平1手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓0万，清仓IC多头（平1手IC多头）</t>
   </si>
   <si>
     <t>目标持仓0万</t>
   </si>
   <si>
-    <t>东北证券卖货基50万，目标持仓5300万，
-中信证券目标持仓700万，46手IC空头（平1手IC空头）</t>
-  </si>
-  <si>
-    <t>海通证券卖货基150万，目标持仓11300万，
-中信建投目标持仓3250万</t>
-  </si>
-  <si>
-    <t>目标持仓2400万，18手IC空头（开18手IC空头）</t>
-  </si>
-  <si>
-    <t>卖货基150万，目标持仓1350万</t>
-  </si>
-  <si>
-    <t>卖货基200万，目标持仓2800万，8手IC多头（平2手IC多头）</t>
+    <t>东北证券目标持仓5250万，
+中信证券目标持仓700万，45手IC空头（平2手IC空头）</t>
+  </si>
+  <si>
+    <t>海通证券目标持仓11150万，
+中信建投目标持仓3250万，109手IC空头（平2手IC空头）</t>
+  </si>
+  <si>
+    <t>信用户目标持仓2450万，2手IC多头（开2手IC多头）</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+目标持仓1350万，4手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓2800万，8手IC多头（平2手IC多头）</t>
   </si>
   <si>
     <t>信用户目标持仓0万</t>
   </si>
   <si>
     <t>平2手IC多头，
-目标持仓3700万，11手IC多头（开1手IC多头）</t>
+目标持仓3750万，11手IC多头（开1手IC多头）</t>
+  </si>
+  <si>
+    <t>普通户目标持仓8800万，7手IC多头（平4手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓2900万</t>
+  </si>
+  <si>
+    <t>目标持仓1800万，14手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓3950万</t>
+  </si>
+  <si>
+    <t>目标持仓11550万</t>
+  </si>
+  <si>
+    <t>目标持仓20100万，16手IC多头（开2手IC多头）</t>
+  </si>
+  <si>
+    <t>普通户目标持仓1950万</t>
   </si>
   <si>
     <t>普通户目标持仓0万，
-信用户目标持仓8800万，7手IC多头（平4手IC多头）</t>
-  </si>
-  <si>
-    <t>卖货基250万，目标持仓2900万</t>
-  </si>
-  <si>
-    <t>目标持仓1800万，14手IC空头（开1手IC空头）</t>
-  </si>
-  <si>
-    <t>目标持仓3950万</t>
-  </si>
-  <si>
-    <t>卖货基150万，目标持仓11550万</t>
-  </si>
-  <si>
-    <t>卖货基250万，目标持仓20100万，16手IC多头（开2手IC多头）</t>
-  </si>
-  <si>
-    <t>普通户目标持仓1950万</t>
-  </si>
-  <si>
-    <t>普通户卖货基250万，目标持仓0万，
-信用户卖货基100万，目标持仓3750万，9手IC空头（平1手IC空头）</t>
-  </si>
-  <si>
-    <t>目标持仓2100万，16手IC空头（开16手IC空头）</t>
+信用户目标持仓3750万，9手IC空头（平1手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓2050万，16手IC空头（开16手IC空头）</t>
   </si>
   <si>
     <t>开7手IC空头，
-普通户卖货基50450万，目标持仓0万，164手IC多头（平60手IC空头，开164手IC多头）</t>
-  </si>
-  <si>
-    <t>目标持仓2600万</t>
-  </si>
-  <si>
-    <t>卖货基1250万，目标持仓0万，
-信用户目标持仓5450万，2手IC空头（开1手IC空头）</t>
+普通户买货基50650万，目标持仓26450万，164手IC多头（平60手IC空头，开164手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓2550万，19手IC空头（平1手IC空头）</t>
+  </si>
+  <si>
+    <t>普通户买货基850万，目标持仓0万，
+信用户卖货基200万，目标持仓5450万，2手IC空头（开1手IC空头）</t>
   </si>
   <si>
     <t>平2手IC空头，
 海通证券目标持仓0万，
 华泰证券普通户目标持仓0万，
-华泰证券信用户目标持仓3450万，219手IC空头（开6手IC空头）</t>
+华泰证券信用户目标持仓3450万，217手IC空头（开4手IC空头）</t>
   </si>
   <si>
     <t>平1手IC空头，
-普通户卖货基2000万，目标持仓0万，
-信用户目标持仓18550万，47手IC空头（平3手IC空头）</t>
+普通户买货基2000万，目标持仓0万，
+信用户目标持仓18500万，46手IC空头（平4手IC空头）</t>
   </si>
   <si>
     <t>普通户目标持仓1200万</t>
   </si>
   <si>
+    <t>目标持仓1600万</t>
+  </si>
+  <si>
     <t>中信证券目标持仓0万，
-国泰君安信用户买货基450万，目标持仓4000万，22手IC空头（开22手IC空头）</t>
-  </si>
-  <si>
-    <t>买货基1050万，目标持仓12600万，29手IC空头（平7手IC多头，开29手IC空头）</t>
-  </si>
-  <si>
-    <t>目标持仓9200万</t>
+国泰君安信用户卖货基450万，目标持仓4000万，21手IC空头（开21手IC空头）</t>
+  </si>
+  <si>
+    <t>卖货基850万，目标持仓12000万，25手IC空头（平7手IC多头，开25手IC空头）</t>
+  </si>
+  <si>
+    <t>卖货基50万，目标持仓9100万，44手IC空头（平1手IC空头）</t>
   </si>
   <si>
     <t>今组合交易执行</t>
@@ -898,12 +906,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -912,14 +920,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -928,6 +929,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -993,15 +1008,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1043,7 +1066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,9 +1098,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,6 +1150,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1284,28 +1343,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
     <col min="8" max="10" width="29" style="3" customWidth="1"/>
-    <col min="11" max="13" width="47.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="36.5703125" style="3" customWidth="1"/>
+    <col min="11" max="13" width="47.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="36.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1340,28 +1404,28 @@
         <v>172</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="80" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,13 +1454,13 @@
         <v>173</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="80" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1425,13 +1489,13 @@
         <v>174</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="80" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1460,13 +1524,13 @@
         <v>175</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="80" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1495,13 +1559,13 @@
         <v>176</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="80" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,10 +1594,10 @@
         <v>177</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="80" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1562,13 +1626,13 @@
         <v>178</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="80" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1597,13 +1661,13 @@
         <v>179</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="80" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1632,10 +1696,10 @@
         <v>180</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="80" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1664,13 +1728,13 @@
         <v>181</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="80" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1699,13 +1763,13 @@
         <v>182</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="80" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1795,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80" customHeight="1">
+    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1760,13 +1824,13 @@
         <v>184</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="80" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1795,13 +1859,13 @@
         <v>185</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="80" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1830,13 +1894,13 @@
         <v>186</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="80" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1865,13 +1929,13 @@
         <v>187</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="80" customHeight="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1900,13 +1964,13 @@
         <v>188</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="80" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1935,16 +1999,16 @@
         <v>189</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="80" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1973,16 +2037,16 @@
         <v>190</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="80" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,13 +2075,13 @@
         <v>191</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="80" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2046,13 +2110,13 @@
         <v>192</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="80" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2081,13 +2145,13 @@
         <v>193</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="80" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2116,13 +2180,13 @@
         <v>194</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="80" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2151,13 +2215,13 @@
         <v>195</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="80" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2186,16 +2250,16 @@
         <v>196</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="80" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2224,16 +2288,16 @@
         <v>197</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="80" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,13 +2326,13 @@
         <v>198</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="80" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2297,13 +2361,13 @@
         <v>199</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="80" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2329,16 +2393,16 @@
         <v>166</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="80" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2364,16 +2428,16 @@
         <v>167</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="80" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2399,19 +2463,19 @@
         <v>168</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="80" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2437,25 +2501,27 @@
         <v>169</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" ht="80" customHeight="1"/>
-    <row r="34" ht="80" customHeight="1"/>
-    <row r="35" ht="80" customHeight="1"/>
-    <row r="36" ht="80" customHeight="1"/>
-    <row r="37" ht="80" customHeight="1"/>
-    <row r="38" ht="80" customHeight="1"/>
-    <row r="39" ht="80" customHeight="1"/>
-    <row r="40" ht="80" customHeight="1"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/trdplan_auto/交易计划mxz-20200803.xlsx
+++ b/data/trdplan_auto/交易计划mxz-20200803.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdplan_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7CD3CB-6238-4CEB-B390-549A4DA652F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5FA652-717F-4704-A37D-116554B2A2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="270">
   <si>
     <t>产品代码</t>
   </si>
@@ -453,8 +453,8 @@
   </si>
   <si>
     <t>期（西部）转银60万
-证（信用）转银95万
-银转期（宏源）120万
+证（信用）转银75万
+银转期（宏源）145万
 银转证（普通）25万</t>
   </si>
   <si>
@@ -477,18 +477,18 @@
   </si>
   <si>
     <t>证（中信建投）转银15万
-证（海通）转银175万
-银转期180万</t>
+证（海通）转银420万
+银转期155万</t>
   </si>
   <si>
     <t>期（中财）转银全部
-证（信用）转银160万
-银转期55万
-银转证（普通）715万</t>
-  </si>
-  <si>
-    <t>期转银90万
-银转证85万</t>
+银转期25万
+银转证（信用）335万
+银转证（普通）840万</t>
+  </si>
+  <si>
+    <t>期转银10万
+银转证1330万</t>
   </si>
   <si>
     <t>期转银200万
@@ -545,15 +545,15 @@
 银转期85万</t>
   </si>
   <si>
-    <t>期转银385万
+    <t>期转银440万
 证（海通普通）转银全部
-银转证（信用）395万
-银转证（普通）840万</t>
+银转证（信用）40万
+银转证（普通）835万</t>
   </si>
   <si>
     <t>证（华泰信用）转银330万
 证（海通）转银27125万
-银转期1570万</t>
+银转期1310万</t>
   </si>
   <si>
     <t>期转银15万
@@ -576,8 +576,8 @@
 银转证（国泰君安普通）475万</t>
   </si>
   <si>
-    <t>银转期440万
-银转证4065万</t>
+    <t>证转银15万
+银转期15万</t>
   </si>
   <si>
     <t>期转银160万
@@ -598,7 +598,7 @@
   </si>
   <si>
     <t>普通户目标持仓0万，
-信用户目标持仓2400万，18手IC空头（宏源期货开2手IC空头，西部期货平2手IC空头）</t>
+信用户目标持仓2450万，19手IC空头（宏源期货开3手IC空头，西部期货平2手IC空头）</t>
   </si>
   <si>
     <t>普通户目标持仓0万，
@@ -615,15 +615,15 @@
 中信证券目标持仓700万，45手IC空头（平2手IC空头）</t>
   </si>
   <si>
-    <t>海通证券目标持仓11150万，
-中信建投目标持仓3250万，109手IC空头（平2手IC空头）</t>
-  </si>
-  <si>
-    <t>信用户目标持仓2450万，2手IC多头（开2手IC多头）</t>
+    <t>海通证券目标持仓10900万，
+中信建投目标持仓3250万，108手IC空头（平3手IC空头）</t>
+  </si>
+  <si>
+    <t>信用户目标持仓2900万，1手IC空头（开1手IC空头）</t>
   </si>
   <si>
     <t>开1手IC多头，
-目标持仓1350万，4手IC多头（平1手IC多头）</t>
+买货基400万，目标持仓2300万，7手IC多头（开2手IC多头）</t>
   </si>
   <si>
     <t>目标持仓2800万，8手IC多头（平2手IC多头）</t>
@@ -672,13 +672,13 @@
   </si>
   <si>
     <t>普通户买货基850万，目标持仓0万，
-信用户卖货基200万，目标持仓5450万，2手IC空头（开1手IC空头）</t>
+信用户卖货基200万，目标持仓5100万，清仓IC空头（平1手IC空头）</t>
   </si>
   <si>
     <t>平2手IC空头，
 海通证券目标持仓0万，
 华泰证券普通户目标持仓0万，
-华泰证券信用户目标持仓3450万，217手IC空头（开4手IC空头）</t>
+华泰证券信用户目标持仓3450万，207手IC空头（平6手IC空头）</t>
   </si>
   <si>
     <t>平1手IC空头，
@@ -696,7 +696,7 @@
 国泰君安信用户卖货基450万，目标持仓4000万，21手IC空头（开21手IC空头）</t>
   </si>
   <si>
-    <t>卖货基850万，目标持仓12000万，25手IC空头（平7手IC多头，开25手IC空头）</t>
+    <t>卖货基100万，目标持仓7550万，9手IC多头（开2手IC多头）</t>
   </si>
   <si>
     <t>卖货基50万，目标持仓9100万，44手IC空头（平1手IC空头）</t>
@@ -708,15 +708,26 @@
     <t>明组合交易计划</t>
   </si>
   <si>
-    <t xml:space="preserve">赎回420万, 按照20200727净值 20200730划款.
+    <t xml:space="preserve">申购500万 按照20200730净值 20200804划款.
+赎回-4187437.69份，（约计477万），按照20200730净值 20200804划款.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">赎回1712万, 按照20200727净值 20200730划款.
+    <t xml:space="preserve">赎回-2754153.0份，（约计288万），按照20200731净值 20200804划款.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">申购4500万, 按照20200727净值 20200729划款.
+    <t xml:space="preserve">申购2182万 按照20200731净值 20200804划款.
+赎回-847947.69份，（约计196万），按照20200731净值 20200804划款.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">申购1323万 按照20200803净值 20200804划款.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赎回-27325178.0份，（约计3578万），按照20200731净值 20200805划款.
+申购11500万 按照20200731净值 20200805划款.
 </t>
   </si>
   <si>
@@ -1346,11 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1410,19 +1418,19 @@
         <v>205</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1454,10 +1462,10 @@
         <v>173</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1488,11 +1496,14 @@
       <c r="K3" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="P3" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1524,10 +1535,10 @@
         <v>175</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1559,10 +1570,10 @@
         <v>176</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1594,7 +1605,7 @@
         <v>177</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1626,10 +1637,10 @@
         <v>178</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1660,11 +1671,14 @@
       <c r="K8" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="P8" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1695,8 +1709,11 @@
       <c r="K9" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="P9" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1727,11 +1744,14 @@
       <c r="K10" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="P10" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1763,10 +1783,10 @@
         <v>182</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1824,10 +1844,10 @@
         <v>184</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1859,10 +1879,10 @@
         <v>185</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1894,10 +1914,10 @@
         <v>186</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1929,10 +1949,10 @@
         <v>187</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1964,10 +1984,10 @@
         <v>188</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1999,13 +2019,13 @@
         <v>189</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2037,13 +2057,13 @@
         <v>190</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2075,10 +2095,10 @@
         <v>191</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2110,10 +2130,10 @@
         <v>192</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2145,10 +2165,10 @@
         <v>193</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2180,10 +2200,10 @@
         <v>194</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2215,10 +2235,10 @@
         <v>195</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2249,14 +2269,11 @@
       <c r="K25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="P25" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2288,13 +2305,13 @@
         <v>197</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2326,10 +2343,10 @@
         <v>198</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2361,10 +2378,10 @@
         <v>199</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2396,10 +2413,10 @@
         <v>200</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2431,10 +2448,10 @@
         <v>201</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2465,14 +2482,11 @@
       <c r="K31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="P31" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -2504,10 +2518,10 @@
         <v>203</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
